--- a/fate/config/于洪算法班/finished.xlsx
+++ b/fate/config/于洪算法班/finished.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -989,6 +989,26 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>12</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>网恋被骗8000</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>沈成</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2020-03-16 12:46:48</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
